--- a/similarities/split_global/harmonic_similarity_timestamps_134.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_134.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:05.956303')]</t>
+          <t>('0:00:00.480000', '0:00:08.480000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:00:00.800000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['A#:min', 'D#:min', 'A#:min/F']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['E:min', 'A:min', 'E:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000')]</t>
+          <t>('0:00:08.400000', '0:00:12.140000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:14.080000')]</t>
+          <t>('0:00:00.506000', '0:00:08.175000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=8.4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'E', 'B'], ['B', 'E', 'B', 'F#']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E/4', 'A', 'D/5', 'A'], ['A', 'D', 'A', 'E/4']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:26.162131', '0:00:47.211020'), ('0:00:01.421269', '0:00:27.450839')]</t>
+          <t>('0:00:19.980000', '0:00:27.180000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:06.779000', '0:00:11.273000'), ('0:00:34.232000', '0:00:40.821000')]</t>
+          <t>('0:00:14.840000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=26.162131', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=6.779', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=34.232']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=14.84</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:16.341609', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
+          <t>('0:02:03.220000', '0:02:07.580000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=16.341609</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:32.100000')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:03.900000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:01:14.180000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=3.9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=74.18</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_233</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:04:12.620000', '0:04:19.880000')]</t>
+          <t>('0:00:57.540000', '0:01:06.900000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:04:00.860000', '0:04:13.720000')]</t>
+          <t>('0:00:36.711000', '0:00:39.787000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=252.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=57.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=240.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-233#t=36.711</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'G#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:min', 'Db'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:49.120000', '0:00:56.940000'), ('0:01:04.080000', '0:01:13.880000')]</t>
+          <t>('0:00:15.060000', '0:00:23.160000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:21.980000'), ('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=49.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=17.48', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>isophonics_115</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Db/5', 'Ab', 'Db/5', 'Ab']]</t>
+          <t>['D:maj/A', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['Bb', 'Bb:min', 'F']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:04:24.615000', '0:04:35.800000')]</t>
+          <t>('0:00:05.860000', '0:00:13.500000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:08.150589', '0:01:20.236575')]</t>
+          <t>('0:00:39.610440', '0:00:45.427039')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=264.615']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=5.86</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=68.150589']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-115#t=39.61044</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D:maj', 'G:min', 'C#:dim7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['Eb', 'Ab:min', 'D:dim7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:18.460000', '0:01:33.600000')]</t>
+          <t>('0:00:12.860000', '0:00:16.880000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+          <t>('0:00:06.590000', '0:00:10.120000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=78.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=12.86</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=64.52']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=6.59</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E/4', 'A', 'D/5', 'A', 'D/5']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E', 'A']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:06.779000', '0:00:12.481000')]</t>
+          <t>('0:01:20.200000', '0:01:26.860000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:02.676666', '0:00:26.140430')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=6.779']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=2.676666']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:10.090000', '0:00:20.170000')]</t>
+          <t>('0:00:04.605000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:00.440395', '0:00:05.558652')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_107</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:58.060000', '0:01:00.620000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:24.660000', '0:00:27.760000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=58.06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-107#t=24.66</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:11.820000', '0:00:18.540000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:00:00.360000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
